--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,48 +688,48 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.91</v>
+        <v>3.12</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>29/07/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>29/07/2023 14:12</t>
         </is>
       </c>
-      <c r="N3" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>29/07/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>29/07/2023 14:12</t>
         </is>
       </c>
-      <c r="P3" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>29/07/2023 16:02</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>29/07/2023 14:12</t>
-        </is>
-      </c>
       <c r="T3" t="n">
-        <v>3.48</v>
+        <v>1.92</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>29/07/2023 17:58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-dravinja/GbHCQEXr/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-triglav/YLWrBZXe/</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ND Gorica</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>1.91</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.16</v>
+        <v>3.44</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:02</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.04</v>
+        <v>3.48</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.07</v>
+        <v>3.48</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nd-gorica/O0xYXdu9/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-dravinja/GbHCQEXr/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>29/07/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
         <v>3.5</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>29/07/2023 17:02</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>29/07/2023 14:12</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>29/07/2023 17:58</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>29/07/2023 17:02</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>29/07/2023 14:12</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>29/07/2023 17:58</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>29/07/2023 14:12</t>
-        </is>
-      </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>2.07</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>29/07/2023 17:58</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-triglav/YLWrBZXe/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nd-gorica/O0xYXdu9/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.64</v>
+        <v>2.97</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.94</v>
+        <v>3.01</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.51</v>
+        <v>3.78</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.07</v>
+        <v>2.03</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-rudar/KCBZlkG0/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Jadran Dekani</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.97</v>
+        <v>1.66</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.01</v>
+        <v>1.89</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.35</v>
+        <v>3.56</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.78</v>
+        <v>3.68</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.03</v>
+        <v>4.09</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.05</v>
+        <v>3.51</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-rudar/KCBZlkG0/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.24</v>
+        <v>1.81</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4.09</v>
+        <v>2.13</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>3.51</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.69</v>
+        <v>3.62</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:21</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.03</v>
+        <v>3.42</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.75</v>
+        <v>2.95</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>1.81</v>
+        <v>3.24</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.13</v>
+        <v>4.09</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.51</v>
+        <v>3.15</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.62</v>
+        <v>3.69</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:21</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.42</v>
+        <v>2.03</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.95</v>
+        <v>1.75</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,63 +3433,63 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.33</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.25</v>
+        <v>3.99</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.38</v>
+        <v>4.38</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.63</v>
+        <v>4.75</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.77</v>
+        <v>6.18</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-nafta/GKUtkAXc/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-dravinja/f5tYjW2o/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>3</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Dravinja</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
-        <v>1.58</v>
+        <v>2.35</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.44</v>
+        <v>2.84</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.99</v>
+        <v>3.12</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4.38</v>
+        <v>3.36</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>4.75</v>
+        <v>2.68</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>6.18</v>
+        <v>2.3</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-dravinja/f5tYjW2o/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-jadran-dekani/YeuxjjIi/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.35</v>
+        <v>4.32</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.84</v>
+        <v>3.42</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.12</v>
+        <v>3.88</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.36</v>
+        <v>3.99</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.68</v>
+        <v>1.66</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-jadran-dekani/YeuxjjIi/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-rudar/UNYplUn4/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>4.32</v>
+        <v>2.32</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.42</v>
+        <v>2.33</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.88</v>
+        <v>3.25</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.99</v>
+        <v>3.38</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>1.66</v>
+        <v>2.63</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>1.85</v>
+        <v>2.77</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-rudar/UNYplUn4/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-nafta/GKUtkAXc/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.41</v>
+        <v>1.19</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.4</v>
+        <v>1.29</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:15</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.23</v>
+        <v>6.85</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.56</v>
+        <v>5.9</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:14</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.54</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.91</v>
+        <v>7.25</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:15</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-beltinci/vJZLu6fp/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.19</v>
+        <v>2.41</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.29</v>
+        <v>3.4</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:15</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>6.85</v>
+        <v>3.23</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>5.9</v>
+        <v>3.56</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:14</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>8.869999999999999</v>
+        <v>2.54</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>7.25</v>
+        <v>1.91</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:15</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-beltinci/vJZLu6fp/</t>
         </is>
       </c>
     </row>
@@ -5698,6 +5698,374 @@
       <c r="V57" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-bilje/tdagF6o3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45189.66666666666</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NK Bistrica</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>4</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>19/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>20/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>19/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>20/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>19/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>20/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-fuzinar/2ZRp5MNe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45189.66666666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>5</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>19/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>20/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>19/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>20/09/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>19/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>20/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-tabor-sezana/f9Ox7rgq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45189.66666666666</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>19/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>20/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>19/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>20/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>19/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>20/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-nd-gorica/tQQl4tw2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45189.75</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NK Krka</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>19/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>20/09/2023 17:32</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>19/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>20/09/2023 17:35</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>19/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>20/09/2023 17:32</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-primorje/8CSt628k/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.49</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.62</v>
+        <v>3.16</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.72</v>
+        <v>2.07</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-ilirija/6PRxXGfF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nd-gorica/O0xYXdu9/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.49</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.16</v>
+        <v>3.62</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.07</v>
+        <v>2.72</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nd-gorica/O0xYXdu9/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-ilirija/6PRxXGfF/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>28/08/2023 22:57</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.53</v>
+        <v>2.57</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/08/2023 16:49</t>
+          <t>29/08/2023 16:48</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.67</v>
+        <v>3.2</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>28/08/2023 22:57</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.07</v>
+        <v>3.46</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/08/2023 16:49</t>
+          <t>29/08/2023 16:48</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>6.1</v>
+        <v>2.37</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>28/08/2023 22:57</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.36</v>
+        <v>2.46</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/08/2023 16:49</t>
+          <t>29/08/2023 16:48</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-tolmin/IqDCqfvL/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-nafta/6mAPNCH1/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,63 +2881,63 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>28/08/2023 22:57</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.57</v>
+        <v>1.53</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>29/08/2023 16:48</t>
+          <t>29/08/2023 16:49</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>4.67</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>28/08/2023 22:57</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.46</v>
+        <v>4.07</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>29/08/2023 16:48</t>
+          <t>29/08/2023 16:49</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.37</v>
+        <v>6.1</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>28/08/2023 22:57</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.46</v>
+        <v>5.36</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>29/08/2023 16:48</t>
+          <t>29/08/2023 16:49</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-nafta/6mAPNCH1/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-tolmin/IqDCqfvL/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,374 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-primorje/8CSt628k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45190.66666666666</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Triglav</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>21/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>21/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>21/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-triglav/OKlbEQ09/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45190.66666666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>21/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>21/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>21/09/2023 14:40</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-beltinci/lSoABOpS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45190.66666666666</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Tolmin</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>21/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>21/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>21/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tolmin/Aym6C4VL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45190.85416666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Grosuplje</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>20/09/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>21/09/2023 20:26</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>20/09/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>21/09/2023 20:30</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>20/09/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>21/09/2023 20:30</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-grosuplje/2Bm2DpGF/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.88</v>
+        <v>3.12</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>19/08/2023 05:42</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.26</v>
+        <v>3.08</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 11:20</t>
         </is>
       </c>
       <c r="N23" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>20/08/2023 08:59</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
         <v>3.4</v>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>19/08/2023 05:42</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>3.33</v>
-      </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 15:35</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.31</v>
+        <v>2.15</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>19/08/2023 05:42</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.93</v>
+        <v>2.12</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 14:26</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-bistrica/n1zIpetC/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-ilirija/zRWDoyR5/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.12</v>
+        <v>1.52</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.08</v>
+        <v>1.47</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20/08/2023 11:20</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.27</v>
+        <v>4.26</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.4</v>
+        <v>5.59</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20/08/2023 15:35</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.15</v>
+        <v>5.03</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.12</v>
+        <v>4.39</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20/08/2023 14:26</t>
+          <t>20/08/2023 17:25</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-ilirija/zRWDoyR5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tabor-sezana/6ouckJRt/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,22 +2697,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.47</v>
+        <v>2.26</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2720,15 +2720,15 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.26</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>5.59</v>
+        <v>3.33</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2736,24 +2736,24 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.03</v>
+        <v>3.31</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.39</v>
+        <v>2.93</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20/08/2023 17:25</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tabor-sezana/6ouckJRt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-bistrica/n1zIpetC/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>1.81</v>
+        <v>3.24</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.13</v>
+        <v>4.09</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.51</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.62</v>
+        <v>3.69</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:21</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.42</v>
+        <v>2.03</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.95</v>
+        <v>1.75</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.24</v>
+        <v>1.81</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.09</v>
+        <v>2.13</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.15</v>
+        <v>3.51</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.69</v>
+        <v>3.62</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:21</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.03</v>
+        <v>3.42</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.75</v>
+        <v>2.95</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,63 +3433,63 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.58</v>
+        <v>2.32</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>2.33</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.99</v>
+        <v>3.25</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>4.38</v>
+        <v>3.38</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.75</v>
+        <v>2.63</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>6.18</v>
+        <v>2.77</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-dravinja/f5tYjW2o/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-nafta/GKUtkAXc/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.35</v>
+        <v>4.32</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.84</v>
+        <v>3.42</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.12</v>
+        <v>3.88</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.36</v>
+        <v>3.99</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.68</v>
+        <v>1.66</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-jadran-dekani/YeuxjjIi/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-rudar/UNYplUn4/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>4.32</v>
+        <v>2.35</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.42</v>
+        <v>2.84</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.88</v>
+        <v>3.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.99</v>
+        <v>3.36</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1.66</v>
+        <v>2.68</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-rudar/UNYplUn4/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-jadran-dekani/YeuxjjIi/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.33</v>
+        <v>1.44</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.25</v>
+        <v>3.99</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.38</v>
+        <v>4.38</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.63</v>
+        <v>4.75</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.77</v>
+        <v>6.18</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-nafta/GKUtkAXc/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-dravinja/f5tYjW2o/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.85</v>
+        <v>6.85</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.38</v>
+        <v>5.9</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.49</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.37</v>
+        <v>7.25</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tolmin/MwmfpnnT/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.19</v>
+        <v>2.41</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.29</v>
+        <v>3.4</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:15</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>6.85</v>
+        <v>3.23</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>5.9</v>
+        <v>3.56</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:14</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>8.869999999999999</v>
+        <v>2.54</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>7.25</v>
+        <v>1.91</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:15</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-beltinci/vJZLu6fp/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.41</v>
+        <v>1.54</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.4</v>
+        <v>1.49</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:15</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.23</v>
+        <v>3.85</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.56</v>
+        <v>4.38</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:14</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.54</v>
+        <v>4.49</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1.91</v>
+        <v>5.37</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:15</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-beltinci/vJZLu6fp/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tolmin/MwmfpnnT/</t>
         </is>
       </c>
     </row>
@@ -6434,6 +6434,558 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-grosuplje/2Bm2DpGF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NK Bistrica</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NK Krka</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:47</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:47</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-nk-krka/pf1lPsFR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45193.66666666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45193.66666666666</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Tolmin</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:41</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:41</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45193.66666666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Triglav</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:32</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:39</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:39</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nd-gorica/IsAXSPF2/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.03</v>
+        <v>1.66</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 15:23</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.49</v>
+        <v>3.56</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.42</v>
+        <v>3.68</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 15:34</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.21</v>
+        <v>4.09</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.83</v>
+        <v>3.51</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 15:23</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-nafta/xlMUkV0f/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.64</v>
+        <v>2.03</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.94</v>
+        <v>2.25</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 15:23</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.51</v>
+        <v>3.42</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 15:34</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.07</v>
+        <v>3.21</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.5</v>
+        <v>2.83</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 15:23</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-nafta/xlMUkV0f/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Jadran Dekani</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.12</v>
+        <v>1.88</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.08</v>
+        <v>2.26</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>20/08/2023 11:20</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.27</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>20/08/2023 15:35</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.15</v>
+        <v>3.31</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.12</v>
+        <v>2.93</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20/08/2023 14:26</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-ilirija/zRWDoyR5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-bistrica/n1zIpetC/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.52</v>
+        <v>3.12</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.47</v>
+        <v>3.08</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 11:20</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.26</v>
+        <v>3.27</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>5.59</v>
+        <v>3.4</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 15:35</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.03</v>
+        <v>2.15</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.39</v>
+        <v>2.12</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20/08/2023 17:25</t>
+          <t>20/08/2023 14:26</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tabor-sezana/6ouckJRt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-ilirija/zRWDoyR5/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,22 +2697,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.88</v>
+        <v>1.52</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>19/08/2023 05:42</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.26</v>
+        <v>1.47</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2720,15 +2720,15 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.4</v>
+        <v>4.26</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>19/08/2023 05:42</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.33</v>
+        <v>5.59</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2736,24 +2736,24 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.31</v>
+        <v>5.03</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>19/08/2023 05:42</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.93</v>
+        <v>4.39</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 17:25</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-bistrica/n1zIpetC/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tabor-sezana/6ouckJRt/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>28/08/2023 22:57</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.57</v>
+        <v>1.53</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/08/2023 16:48</t>
+          <t>29/08/2023 16:49</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.2</v>
+        <v>4.67</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>28/08/2023 22:57</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.46</v>
+        <v>4.07</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/08/2023 16:48</t>
+          <t>29/08/2023 16:49</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.37</v>
+        <v>6.1</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>28/08/2023 22:57</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.46</v>
+        <v>5.36</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/08/2023 16:48</t>
+          <t>29/08/2023 16:49</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-nafta/6mAPNCH1/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-tolmin/IqDCqfvL/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,63 +2881,63 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>28/08/2023 22:57</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.53</v>
+        <v>2.57</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>29/08/2023 16:49</t>
+          <t>29/08/2023 16:48</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.67</v>
+        <v>3.2</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>28/08/2023 22:57</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.07</v>
+        <v>3.46</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>29/08/2023 16:49</t>
+          <t>29/08/2023 16:48</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>6.1</v>
+        <v>2.37</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>28/08/2023 22:57</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.36</v>
+        <v>2.46</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>29/08/2023 16:49</t>
+          <t>29/08/2023 16:48</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-tolmin/IqDCqfvL/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-nafta/6mAPNCH1/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>3</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Nafta</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.33</v>
+        <v>2.84</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.25</v>
+        <v>3.12</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-nafta/GKUtkAXc/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-jadran-dekani/YeuxjjIi/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Jadran Dekani</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>3</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.84</v>
+        <v>2.33</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.3</v>
+        <v>2.77</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-jadran-dekani/YeuxjjIi/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-nafta/GKUtkAXc/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.08</v>
+        <v>1.71</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>02/09/2023 16:22</t>
+          <t>03/09/2023 16:29</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>4.26</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>03/09/2023 14:34</t>
+          <t>03/09/2023 16:29</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.81</v>
+        <v>3.21</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.08</v>
+        <v>3.57</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>03/09/2023 12:42</t>
+          <t>03/09/2023 16:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-bistrica/UPPMqFeI/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bilje/OpYlml2A/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.61</v>
+        <v>2.08</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>02/09/2023 11:38</t>
+          <t>02/09/2023 16:22</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.21</v>
+        <v>3.28</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>03/09/2023 14:31</t>
+          <t>03/09/2023 14:34</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.74</v>
+        <v>2.81</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.46</v>
+        <v>3.08</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>02/09/2023 11:38</t>
+          <t>03/09/2023 12:42</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-nk-krka/6kmjSnQp/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-bistrica/UPPMqFeI/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.71</v>
+        <v>2.61</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>03/09/2023 16:29</t>
+          <t>02/09/2023 11:38</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.44</v>
+        <v>3.21</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.26</v>
+        <v>3.32</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>03/09/2023 16:29</t>
+          <t>03/09/2023 14:31</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.21</v>
+        <v>2.74</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.57</v>
+        <v>2.46</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>03/09/2023 16:29</t>
+          <t>02/09/2023 11:38</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bilje/OpYlml2A/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-nk-krka/6kmjSnQp/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.19</v>
+        <v>2.41</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.29</v>
+        <v>3.4</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:15</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>6.85</v>
+        <v>3.23</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>5.9</v>
+        <v>3.56</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:14</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>8.869999999999999</v>
+        <v>2.54</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>7.25</v>
+        <v>1.91</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:15</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-beltinci/vJZLu6fp/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,63 +4537,63 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.93</v>
+        <v>1.19</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.32</v>
+        <v>1.29</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.41</v>
+        <v>6.85</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.53</v>
+        <v>5.9</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:20</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.15</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.69</v>
+        <v>7.25</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-fuzinar/YHGC2T1c/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.41</v>
+        <v>1.93</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.4</v>
+        <v>2.32</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:15</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.23</v>
+        <v>3.41</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:14</t>
+          <t>09/09/2023 16:20</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.54</v>
+        <v>3.15</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.91</v>
+        <v>2.69</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:15</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-beltinci/vJZLu6fp/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-fuzinar/YHGC2T1c/</t>
         </is>
       </c>
     </row>
@@ -6986,6 +6986,98 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nd-gorica/IsAXSPF2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45194.66666666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>25/09/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>25/09/2023 14:00</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>24/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>25/09/2023 13:50</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-rudar/xhtTHa71/</t>
         </is>
       </c>
     </row>
